--- a/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_18Channel/4U3U4I3I.xlsx
+++ b/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_18Channel/4U3U4I3I.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EA907F-FC34-4096-ACE1-5C767CDF1B66}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2124CE-94D3-4DD4-9B23-C827A04AB3EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -775,8 +775,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,8 +847,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1021,7 @@
         <v>103</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1029,7 +1029,7 @@
         <v>104</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1045,31 +1045,31 @@
         <v>106</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B25">
-        <v>17</v>
+      <c r="B25" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B26">
-        <v>18</v>
+      <c r="B26" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B27">
-        <v>0</v>
+      <c r="B27" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1077,7 +1077,7 @@
         <v>110</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1996,8 +1996,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2117,7 +2117,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2139,7 +2139,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -2153,7 +2153,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -2167,7 +2167,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -2180,8 +2180,8 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" s="2">
+        <v>18</v>
       </c>
       <c r="C13">
         <v>11</v>
